--- a/data_exports_xlsx/longitudinal_repeating.xlsx
+++ b/data_exports_xlsx/longitudinal_repeating.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavosplmoura/Library/Mobile Documents/com~apple~CloudDocs/Medicina/Biblioteca/Data Science/Data Science/R_Projects_Teaching/MED5711_Sistemas_de_Informacao/data_exports_xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavosplmoura/Library/Mobile Documents/com~apple~CloudDocs/Medicina/Biblioteca/Data Science/Data Science/R_Projects_Teaching/MED5711_REDCap/data_exports_xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5DD320-D4AF-5F4D-809A-96E03DB669EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A6661F-37AB-4A47-A715-A3BB412F6A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3280" yWindow="2160" windowWidth="27980" windowHeight="17440" xr2:uid="{821E0BA5-44FB-374C-BAEA-5E7EEDE8B1BD}"/>
   </bookViews>
@@ -662,9 +662,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,2509 +1050,2514 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8188ED8C-EA5B-AB4A-87A0-FBFF3BDBB73F}">
   <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>45369</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>34742</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>30.1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>44344</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>75</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>42964</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>100</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>40539</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>41659</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>42228</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>20</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>42000</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>100</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>43837</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>75</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <v>45658</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>50</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <v>44975</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>75</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
         <v>45672</v>
       </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="3">
         <v>43621</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>100</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
         <v>45663</v>
       </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="3">
         <v>40395</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>20</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="AB13">
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <v>43219</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>20</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="AB14">
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="3">
         <v>44157</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>20</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="AB15">
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="3">
         <v>45591</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>100</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="AB16">
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
         <v>45674</v>
       </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
         <v>45695</v>
       </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>3</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>45501</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>34135</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>31.7</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
         <v>5</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="3">
         <v>42213</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>100</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <v>42087</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>100</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="3">
         <v>42372</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>75</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>4</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="3">
         <v>44438</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>50</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="3">
         <v>43803</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>100</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="R24" s="1">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
         <v>45705</v>
       </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>2</v>
-      </c>
-      <c r="Z24">
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3">
         <v>45131</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>20</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="R25" s="1">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1">
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
         <v>45706</v>
       </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>2</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="3">
         <v>41324</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>10</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R26">
-        <v>2</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="R26" s="1">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1">
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
         <v>45693</v>
       </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1">
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
         <v>45679</v>
       </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>3</v>
-      </c>
-      <c r="Z27">
-        <v>2</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28" s="1">
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="3">
         <v>45716</v>
       </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>3</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29" s="1">
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
         <v>45714</v>
       </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>2</v>
-      </c>
-      <c r="Z29">
-        <v>2</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
+      <c r="W29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>4</v>
       </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30" s="1">
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="3">
         <v>45715</v>
       </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30">
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="1">
         <v>4</v>
       </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31" s="1">
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
         <v>45661</v>
       </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>45313</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>34708</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>30.1</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="3">
         <v>45229</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>100</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="3">
         <v>41744</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>10</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="3">
         <v>43087</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="1">
         <v>50</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="3">
         <v>41846</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>50</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="3">
         <v>43330</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>100</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="3">
         <v>44735</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>100</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
+      <c r="R38" s="1">
+        <v>2</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="3">
         <v>44683</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="1">
         <v>20</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="AB39">
+      <c r="R39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="3">
         <v>43250</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="1">
         <v>100</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="AB40">
+      <c r="R40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>4</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="3">
         <v>45632</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="1">
         <v>75</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="AB41">
+      <c r="R41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>5</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="3">
         <v>43562</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="1">
         <v>50</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="AB42">
+      <c r="R42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>6</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="3">
         <v>40420</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="1">
         <v>20</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="AB43">
+      <c r="R43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>45303</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3">
         <v>36797</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>24.4</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>4</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="3">
         <v>44586</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="1">
         <v>50</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="3">
         <v>43187</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="1">
         <v>10</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>4</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="3">
         <v>45355</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="1">
         <v>100</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>4</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>4</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="3">
         <v>43364</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="1">
         <v>10</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>4</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="3">
         <v>42491</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="1">
         <v>75</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R50">
-        <v>2</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="R50" s="1">
+        <v>2</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50" s="1">
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="3">
         <v>45671</v>
       </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="Y50">
-        <v>2</v>
-      </c>
-      <c r="Z50">
+      <c r="W50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="1">
         <v>4</v>
       </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
+      <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>4</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="3">
         <v>43641</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="1">
         <v>100</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R51">
-        <v>2</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-      <c r="T51" t="s">
+      <c r="R51" s="1">
+        <v>2</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51" s="1">
+      <c r="U51" s="1">
+        <v>1</v>
+      </c>
+      <c r="V51" s="3">
         <v>45658</v>
       </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
-      </c>
-      <c r="Z51">
-        <v>3</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
+      <c r="W51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>4</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="3">
         <v>40182</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="1">
         <v>20</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R52">
-        <v>2</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-      <c r="T52" t="s">
+      <c r="R52" s="1">
+        <v>2</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52" s="1">
+      <c r="U52" s="1">
+        <v>1</v>
+      </c>
+      <c r="V52" s="3">
         <v>45701</v>
       </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="Y52">
-        <v>2</v>
-      </c>
-      <c r="Z52">
+      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="1">
         <v>4</v>
       </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
+      <c r="AA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>4</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>4</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="3">
         <v>42084</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="1">
         <v>50</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R53">
-        <v>2</v>
-      </c>
-      <c r="AB53">
+      <c r="R53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>4</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54" t="s">
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54" s="1">
+      <c r="U54" s="1">
+        <v>1</v>
+      </c>
+      <c r="V54" s="3">
         <v>45675</v>
       </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="Y54">
-        <v>2</v>
-      </c>
-      <c r="Z54">
-        <v>3</v>
-      </c>
-      <c r="AA54">
-        <v>1</v>
-      </c>
-      <c r="AB54">
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55" t="s">
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55" s="1">
+      <c r="U55" s="1">
+        <v>1</v>
+      </c>
+      <c r="V55" s="3">
         <v>45694</v>
       </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-      <c r="Z55">
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="1">
         <v>4</v>
       </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>4</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56" t="s">
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56" s="1">
+      <c r="U56" s="1">
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
         <v>45667</v>
       </c>
-      <c r="W56">
-        <v>1</v>
-      </c>
-      <c r="Y56">
-        <v>2</v>
-      </c>
-      <c r="Z56">
-        <v>3</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
+      <c r="W56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>5</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="3">
         <v>45628</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="3">
         <v>33022</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>34.799999999999997</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
         <v>6</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>5</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="3">
         <v>43348</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="1">
         <v>100</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59" s="3">
         <v>44007</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="1">
         <v>75</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>5</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60" s="3">
         <v>45135</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="1">
         <v>20</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>5</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61" s="3">
         <v>40935</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="1">
         <v>100</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61" t="s">
+      <c r="R61" s="1">
+        <v>2</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61" s="1">
+      <c r="U61" s="1">
+        <v>1</v>
+      </c>
+      <c r="V61" s="3">
         <v>45682</v>
       </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="Y61">
-        <v>3</v>
-      </c>
-      <c r="Z61">
-        <v>2</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
+      <c r="W61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>5</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="3">
         <v>45478</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="1">
         <v>100</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="Q62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R62">
-        <v>2</v>
-      </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62" t="s">
+      <c r="R62" s="1">
+        <v>2</v>
+      </c>
+      <c r="S62" s="1">
+        <v>1</v>
+      </c>
+      <c r="T62" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62" s="1">
+      <c r="U62" s="1">
+        <v>1</v>
+      </c>
+      <c r="V62" s="3">
         <v>45699</v>
       </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="Y62">
-        <v>2</v>
-      </c>
-      <c r="Z62">
-        <v>1</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>5</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63" s="3">
         <v>42694</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="1">
         <v>100</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
+      <c r="R63" s="1">
+        <v>2</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>5</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
-      <c r="T64" t="s">
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+      <c r="T64" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="V64" s="1">
+      <c r="U64" s="1">
+        <v>1</v>
+      </c>
+      <c r="V64" s="3">
         <v>45662</v>
       </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-      <c r="Z64">
+      <c r="W64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="1">
         <v>4</v>
       </c>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AB64">
+      <c r="AA64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>5</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U65">
-        <v>1</v>
-      </c>
-      <c r="V65" s="1">
+      <c r="U65" s="1">
+        <v>1</v>
+      </c>
+      <c r="V65" s="3">
         <v>45690</v>
       </c>
-      <c r="W65">
-        <v>1</v>
-      </c>
-      <c r="Y65">
-        <v>1</v>
-      </c>
-      <c r="Z65">
-        <v>1</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>5</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="T66" t="s">
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="S66" s="1">
+        <v>1</v>
+      </c>
+      <c r="T66" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U66">
-        <v>1</v>
-      </c>
-      <c r="V66" s="1">
+      <c r="U66" s="1">
+        <v>1</v>
+      </c>
+      <c r="V66" s="3">
         <v>45707</v>
       </c>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="Y66">
-        <v>2</v>
-      </c>
-      <c r="Z66">
+      <c r="W66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z66" s="1">
         <v>4</v>
       </c>
-      <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66">
+      <c r="AA66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>5</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>4</v>
       </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67" t="s">
+      <c r="S67" s="1">
+        <v>1</v>
+      </c>
+      <c r="T67" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
-      <c r="V67" s="1">
+      <c r="U67" s="1">
+        <v>1</v>
+      </c>
+      <c r="V67" s="3">
         <v>45668</v>
       </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="Y67">
-        <v>3</v>
-      </c>
-      <c r="Z67">
-        <v>1</v>
-      </c>
-      <c r="AA67">
-        <v>1</v>
-      </c>
-      <c r="AB67">
+      <c r="W67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>5</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>5</v>
       </c>
-      <c r="S68">
-        <v>1</v>
-      </c>
-      <c r="T68" t="s">
+      <c r="S68" s="1">
+        <v>1</v>
+      </c>
+      <c r="T68" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U68">
-        <v>1</v>
-      </c>
-      <c r="V68" s="1">
+      <c r="U68" s="1">
+        <v>1</v>
+      </c>
+      <c r="V68" s="3">
         <v>45697</v>
       </c>
-      <c r="W68">
-        <v>1</v>
-      </c>
-      <c r="Y68">
-        <v>3</v>
-      </c>
-      <c r="Z68">
-        <v>1</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
+      <c r="W68" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>5</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>6</v>
       </c>
-      <c r="S69">
-        <v>1</v>
-      </c>
-      <c r="T69" t="s">
+      <c r="S69" s="1">
+        <v>1</v>
+      </c>
+      <c r="T69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="V69" s="1">
+      <c r="U69" s="1">
+        <v>1</v>
+      </c>
+      <c r="V69" s="3">
         <v>45685</v>
       </c>
-      <c r="W69">
-        <v>1</v>
-      </c>
-      <c r="Y69">
-        <v>3</v>
-      </c>
-      <c r="Z69">
-        <v>2</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
+      <c r="W69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
         <v>2</v>
       </c>
     </row>
